--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2560.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2560.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.081088498476613</v>
+        <v>1.653636693954468</v>
       </c>
       <c r="B1">
-        <v>1.703879486188668</v>
+        <v>1.471322059631348</v>
       </c>
       <c r="C1">
-        <v>3.713361537951739</v>
+        <v>6.464095592498779</v>
       </c>
       <c r="D1">
-        <v>2.002303962166901</v>
+        <v>2.825422525405884</v>
       </c>
       <c r="E1">
-        <v>0.7651757174767125</v>
+        <v>0.524304211139679</v>
       </c>
     </row>
   </sheetData>
